--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/ZZ  CONCENTRADO HERRADURA 2021--2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/ZZ  CONCENTRADO HERRADURA 2021--2023.xlsx
@@ -582,15 +582,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="5" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -605,6 +596,15 @@
     </xf>
     <xf numFmtId="44" fontId="4" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -902,7 +902,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="M22" sqref="M22"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -915,13 +915,13 @@
   <sheetData>
     <row r="1" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -939,16 +939,16 @@
       <c r="E4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="34" t="s">
         <v>26</v>
       </c>
     </row>
@@ -968,11 +968,11 @@
       <c r="F5" s="8">
         <v>80916.84</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="29">
         <v>136234.76999999999</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="34">
+      <c r="H5" s="30"/>
+      <c r="I5" s="31">
         <f>C5-D5+E5-F5+G5</f>
         <v>9305.210000000021</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>2338520.7400000002</v>
       </c>
       <c r="E23" s="13">
-        <v>33262</v>
+        <v>28625</v>
       </c>
       <c r="F23" s="14">
         <v>90757.04</v>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="I23" s="18">
         <f t="shared" si="0"/>
-        <v>78081.869999999792</v>
+        <v>73444.869999999792</v>
       </c>
     </row>
     <row r="24" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1476,7 +1476,7 @@
       <c r="H25" s="26"/>
       <c r="I25" s="27">
         <f>SUM(I5:I24)</f>
-        <v>457647.99000000034</v>
+        <v>453010.99000000034</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
